--- a/metadata/galbut_rna1_ML_metadata.xlsx
+++ b/metadata/galbut_rna1_ML_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lexikeene/Documents/Research/papers/OC_Figures/Old_Collections_Figures/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5F247FF-6AAC-8A4F-BF25-C00BDFB7F1BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89F17FD-2A75-8D4B-B27F-7ED049297C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15580" xr2:uid="{E9C56189-DE2C-8146-9835-1D85C5976FBD}"/>
+    <workbookView xWindow="39560" yWindow="500" windowWidth="27640" windowHeight="23500" xr2:uid="{E9C56189-DE2C-8146-9835-1D85C5976FBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,387 +35,363 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="127">
-  <si>
-    <t>Diptera_China_2018_Hubei_partiti-like_virus_18_KX884152</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="119">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>KX884152</t>
+  </si>
+  <si>
+    <t>MW976836</t>
+  </si>
+  <si>
+    <t>MW976835</t>
+  </si>
+  <si>
+    <t>MW976834</t>
+  </si>
+  <si>
+    <t>MW976833</t>
+  </si>
+  <si>
+    <t>MW976832</t>
+  </si>
+  <si>
+    <t>MW976831</t>
+  </si>
+  <si>
+    <t>MW976830</t>
+  </si>
+  <si>
+    <t>MW976829</t>
+  </si>
+  <si>
+    <t>MW976828</t>
+  </si>
+  <si>
+    <t>MW976827</t>
+  </si>
+  <si>
+    <t>MW976826</t>
+  </si>
+  <si>
+    <t>MW976825</t>
+  </si>
+  <si>
+    <t>MW976824</t>
+  </si>
+  <si>
+    <t>MH384378</t>
+  </si>
+  <si>
+    <t>MH384372</t>
+  </si>
+  <si>
+    <t>MH384364</t>
+  </si>
+  <si>
+    <t>MH384360</t>
+  </si>
+  <si>
+    <t>MH384353</t>
+  </si>
+  <si>
+    <t>MH384335</t>
+  </si>
+  <si>
+    <t>MH384271</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>D. simulans</t>
+  </si>
+  <si>
+    <t>D. melanogaster</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>galbut_EVE_from_Wallace_supp_fig_S10</t>
+  </si>
+  <si>
+    <t>MT742160</t>
+  </si>
+  <si>
+    <t>MT742164</t>
+  </si>
+  <si>
+    <t>OR729093</t>
+  </si>
+  <si>
+    <t>OR729094</t>
+  </si>
+  <si>
+    <t>OR729095</t>
+  </si>
+  <si>
+    <t>OR729096</t>
+  </si>
+  <si>
+    <t>OR729097</t>
+  </si>
+  <si>
+    <t>OR729098</t>
+  </si>
+  <si>
+    <t>OR729099</t>
+  </si>
+  <si>
+    <t>OR729100</t>
+  </si>
+  <si>
+    <t>OR729101</t>
+  </si>
+  <si>
+    <t>OR729102</t>
+  </si>
+  <si>
+    <t>OR729103</t>
+  </si>
+  <si>
+    <t>OR729104</t>
+  </si>
+  <si>
+    <t>OR729105</t>
+  </si>
+  <si>
+    <t>OR729106</t>
+  </si>
+  <si>
+    <t>OR729107</t>
+  </si>
+  <si>
+    <t>OR729108</t>
+  </si>
+  <si>
+    <t>OR729109</t>
+  </si>
+  <si>
+    <t>OR729110</t>
+  </si>
+  <si>
+    <t>OR729111</t>
+  </si>
+  <si>
+    <t>OR729112</t>
+  </si>
+  <si>
+    <t>OR729113</t>
+  </si>
+  <si>
+    <t>OR729114</t>
+  </si>
+  <si>
+    <t>OR729115</t>
+  </si>
+  <si>
+    <t>OR729116</t>
+  </si>
+  <si>
+    <t>OR729117</t>
+  </si>
+  <si>
+    <t>OR820562</t>
+  </si>
+  <si>
+    <t>OR820569</t>
+  </si>
+  <si>
+    <t>OR820575</t>
+  </si>
+  <si>
+    <t>OR820588</t>
+  </si>
+  <si>
+    <t>OR820596</t>
+  </si>
+  <si>
+    <t>OR820600</t>
+  </si>
+  <si>
+    <t>D_mel_Illinois_USA_1908-1004277-galbut_virus_RdRp_partial_CDS</t>
+  </si>
+  <si>
+    <t>D_mel_Illinois_1930-1004283-galbut_virus_RdRp_CDS</t>
+  </si>
+  <si>
+    <t>D_mel_Minnesota_USA_1919-StPaul1919_galbut_virus_RdRp_Complete_CDS</t>
+  </si>
+  <si>
+    <t>D_mel_Pennsylvania_USA_1963-Frost03211963-galbut_virus_RdRp_partial_CDS</t>
+  </si>
+  <si>
+    <t>D_sim_California_USA_2000_galbut_virus_RdRp_Complete_CDS</t>
   </si>
   <si>
     <t>D_sim_California_USA_2011-BBDIV1550-galbut_virus_RdRp_Complete_CDS</t>
   </si>
   <si>
-    <t>D_sim_California_USA_2000_galbut_virus_RdRp_Complete_CDS</t>
-  </si>
-  <si>
-    <t>D_sim_Australia_2018_MW976836</t>
-  </si>
-  <si>
-    <t>D_sim_Australia_2018_MW976835</t>
-  </si>
-  <si>
-    <t>D_sim_Australia_2018_MW976834</t>
-  </si>
-  <si>
-    <t>D_sim_Australia_2018_MW976833</t>
-  </si>
-  <si>
-    <t>D_sim_Australia_2018_MW976832</t>
-  </si>
-  <si>
-    <t>D_sim_Australia_2018_MW976831</t>
-  </si>
-  <si>
-    <t>D_sim_Australia_2018_MW976830</t>
-  </si>
-  <si>
-    <t>D_sim_Australia_2018_MW976829</t>
-  </si>
-  <si>
-    <t>D_sim_Australia_2018_MW976828</t>
-  </si>
-  <si>
-    <t>D_sim_Australia_2018_MW976827</t>
-  </si>
-  <si>
-    <t>D_sim_Australia_2018_MW976826</t>
-  </si>
-  <si>
-    <t>D_sim_Australia_2018_MW976825</t>
-  </si>
-  <si>
-    <t>D_sim_Australia_2018_MW976824</t>
-  </si>
-  <si>
-    <t>D_mel_Pennsylvania_USA_1963-Frost03211963-galbut_virus_RdRp_partial_CDS</t>
-  </si>
-  <si>
-    <t>D_mel_Minnesota_USA_1919-StPaul1919_galbut_virus_RdRp_Complete_CDS</t>
-  </si>
-  <si>
-    <t>D_mel_Illinois_USA_1908-1004277-galbut_virus_RdRp_complete_CDS</t>
-  </si>
-  <si>
-    <t>D_mel_Illinois_1930-1004283-galbut_virus_RdRp_partial_CDS</t>
-  </si>
-  <si>
-    <t>D_mel_Haiti_2018_2</t>
-  </si>
-  <si>
-    <t>D_mel_Haiti_2018_1</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2021_MDS_C2_21_RNA_1</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2021_MDS_C2_20_RNA_1</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2021_MDS_C2_19_RNA_1</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2021_MDS_C2_18_RNA_1</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2021_MDS_C2_17_RNA_1</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2021_MDS_C2_16_RNA_1</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2021_MDS_C2_15_RNA_1</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2021_MDS_C2_14_RNA_1</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2021_MDS_C2_13_RNA_1</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2021_MDS_C2_12_RNA_1</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2021_MDS_C2_11_RNA_1</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2021_MDS_C2_10_RNA_1</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2021_MDS_C2_9_RNA_1</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2021_MDS_C2_8_RNA_1</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2021_MDS_C2_7_RNA_1</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2021_MDS_C2_6_RNA_1</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2021_MDS_C2_5_RNA_1</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2021_MDS_C2_4_RNA_1</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2021_MDS_C2_3_RNA_1</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2021_MDS_C2_2_RNA_1</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2021_MDS_C2_1_RNA_1</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2021_LK_6_RNA_1</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2021_LK_2_RNA_1</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2020_TD_6_RNA_1</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2020_TD_5_RNA_1</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2020_TD_2_RNA_1</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2020_TD_1_RNA_1</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2020_AG_1_RNA_1</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2019_kitchen</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2019_compost_rep2</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2019_compost_rep1</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2018_rep2</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2018_rep1</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2017</t>
-  </si>
-  <si>
-    <t>D_mel_Colorado_USA_2016</t>
-  </si>
-  <si>
-    <t>D_mel_Brazil_2019_5</t>
-  </si>
-  <si>
-    <t>D_mel_Brazil_2019_4</t>
-  </si>
-  <si>
-    <t>D_mel_Brazil_2019_3</t>
-  </si>
-  <si>
-    <t>D_mel_Brazil_2019_2</t>
-  </si>
-  <si>
-    <t>D_mel_Brazil_2019_1</t>
-  </si>
-  <si>
-    <t>D_mel_Australia_2008_MH384378</t>
-  </si>
-  <si>
-    <t>D_mel_Australia_2008_MH384372</t>
-  </si>
-  <si>
-    <t>D_mel_Australia_2008_MH384364</t>
-  </si>
-  <si>
-    <t>D_mel_Australia_2008_MH384360</t>
-  </si>
-  <si>
-    <t>D_mel_Australia_2008_MH384353</t>
-  </si>
-  <si>
-    <t>D_mel_Australia_2008_MH384335</t>
-  </si>
-  <si>
-    <t>D_mel_Australia_2008_MH384271</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>KX884152</t>
-  </si>
-  <si>
-    <t>MW976836</t>
-  </si>
-  <si>
-    <t>MW976835</t>
-  </si>
-  <si>
-    <t>MW976834</t>
-  </si>
-  <si>
-    <t>MW976833</t>
-  </si>
-  <si>
-    <t>MW976832</t>
-  </si>
-  <si>
-    <t>MW976831</t>
-  </si>
-  <si>
-    <t>MW976830</t>
-  </si>
-  <si>
-    <t>MW976829</t>
-  </si>
-  <si>
-    <t>MW976828</t>
-  </si>
-  <si>
-    <t>MW976827</t>
-  </si>
-  <si>
-    <t>MW976826</t>
-  </si>
-  <si>
-    <t>MW976825</t>
-  </si>
-  <si>
-    <t>MW976824</t>
-  </si>
-  <si>
-    <t>MH384378</t>
-  </si>
-  <si>
-    <t>MH384372</t>
-  </si>
-  <si>
-    <t>MH384364</t>
-  </si>
-  <si>
-    <t>MH384360</t>
-  </si>
-  <si>
-    <t>MH384353</t>
-  </si>
-  <si>
-    <t>MH384335</t>
-  </si>
-  <si>
-    <t>MH384271</t>
-  </si>
-  <si>
-    <t>species</t>
-  </si>
-  <si>
-    <t>Diptera</t>
-  </si>
-  <si>
-    <t>D. simulans</t>
-  </si>
-  <si>
-    <t>D. melanogaster</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Illinois_USA_1908</t>
-  </si>
-  <si>
-    <t>California_USA_2011</t>
-  </si>
-  <si>
-    <t>California_USA_2000</t>
-  </si>
-  <si>
-    <t>Pennsylvania_USA_1963</t>
-  </si>
-  <si>
-    <t>Minnesota_USA_1919</t>
-  </si>
-  <si>
-    <t>Illinois_1930-1004283</t>
-  </si>
-  <si>
-    <t>Haiti_2018_2</t>
-  </si>
-  <si>
-    <t>Haiti_2018_1</t>
-  </si>
-  <si>
-    <t>Colorado_USA_2021</t>
-  </si>
-  <si>
-    <t>Colorado_USA_2022</t>
-  </si>
-  <si>
-    <t>Colorado_USA_2023</t>
-  </si>
-  <si>
-    <t>Colorado_USA_2024</t>
-  </si>
-  <si>
-    <t>Colorado_USA_2025</t>
-  </si>
-  <si>
-    <t>Colorado_USA_2026</t>
-  </si>
-  <si>
-    <t>Colorado_USA_2027</t>
-  </si>
-  <si>
-    <t>Colorado_USA_2020</t>
-  </si>
-  <si>
-    <t>Colorado_USA_2019</t>
-  </si>
-  <si>
-    <t>Colorado_USA_2018</t>
-  </si>
-  <si>
-    <t>Colorado_USA_2017</t>
-  </si>
-  <si>
-    <t>Colorado_USA_2016</t>
-  </si>
-  <si>
-    <t>D_mel_Brazil_2019</t>
-  </si>
-  <si>
-    <t>D_mel_Brazil_2020</t>
-  </si>
-  <si>
-    <t>D_mel_Brazil_2021</t>
-  </si>
-  <si>
-    <t>D_mel_Brazil_2022</t>
-  </si>
-  <si>
-    <t>D_mel_Brazil_2023</t>
+    <t>Hubei partiti-like virus 18 strain SCM50556 RdRp gene, complete cds</t>
+  </si>
+  <si>
+    <t>Galbut virus strain COFminus18330 segment 1 putative RNA-dependent RNA polymerase gene, complete cds</t>
+  </si>
+  <si>
+    <t>Galbut virus strain MEL216G segment 1 putative RNA-dependent RNA polymerase gene, complete cds</t>
+  </si>
+  <si>
+    <t>Galbut virus strain MEL193G segment 1 putative RNA-dependent RNA polymerase gene, complete cds</t>
+  </si>
+  <si>
+    <t>Galbut virus strain MEL191G segment 1 putative RNA-dependent RNA polymerase gene, complete cds</t>
+  </si>
+  <si>
+    <t>Galbut virus strain MEL163G segment 1 putative RNA-dependent RNA polymerase gene, complete cds</t>
+  </si>
+  <si>
+    <t>Galbut virus strain MEL187G segment 1 putative RNA-dependent RNA polymerase gene, complete cds</t>
+  </si>
+  <si>
+    <t>Galbut virus strain MEL195G segment 1 putative RNA-dependent RNA polymerase gene, complete cds</t>
+  </si>
+  <si>
+    <t>Galbut virus isolate Gv.FoCo17 RNA-dependent RNA polymerase gene, complete cds</t>
+  </si>
+  <si>
+    <t>Galbut virus isolate Gv.FoCo18 RNA-dependent RNA polymerase gene, complete cds</t>
+  </si>
+  <si>
+    <t>UNVERIFIED: Galbut virus isolate k119_7000 RNA-dependent RNA polymerase-like gene, complete sequence</t>
+  </si>
+  <si>
+    <t>UNVERIFIED: Galbut virus isolate k119_15592 RNA-dependent RNA polymerase-like gene, complete sequence</t>
+  </si>
+  <si>
+    <t>UNVERIFIED: Galbut virus isolate k119_17720 RNA-dependent RNA polymerase-like gene, complete sequence</t>
+  </si>
+  <si>
+    <t>UNVERIFIED: Galbut virus isolate k119_4103 RNA-dependent RNA polymerase-like gene, complete sequence</t>
+  </si>
+  <si>
+    <t>UNVERIFIED: Galbut virus isolate k119_17804 RNA-dependent RNA polymerase-like gene, complete sequence</t>
+  </si>
+  <si>
+    <t>UNVERIFIED: Galbut virus isolate k119_21494 RNA-dependent RNA polymerase-like gene, complete sequence</t>
+  </si>
+  <si>
+    <t>UNVERIFIED: Galbut virus isolate k119_18395 RNA-dependent RNA polymerase-like gene, complete sequence</t>
+  </si>
+  <si>
+    <t>UNVERIFIED: Galbut virus isolate k119_15212 RNA-dependent RNA polymerase-like gene, complete sequence</t>
+  </si>
+  <si>
+    <t>UNVERIFIED: Galbut virus isolate k119_16819 RNA-dependent RNA polymerase-like gene, complete sequence</t>
+  </si>
+  <si>
+    <t>UNVERIFIED: Galbut virus isolate k119_15935 RNA-dependent RNA polymerase-like gene, complete sequence</t>
+  </si>
+  <si>
+    <t>UNVERIFIED: Galbut virus isolate k119_3037 RNA-dependent RNA polymerase-like gene, complete sequence</t>
+  </si>
+  <si>
+    <t>UNVERIFIED: Galbut virus isolate k119_2472 RNA-dependent RNA polymerase-like gene, complete sequence</t>
+  </si>
+  <si>
+    <t>UNVERIFIED: Galbut virus isolate k119_14538 RNA-dependent RNA polymerase-like gene, complete sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankIt2746954 FoCo20_TD_3_Galbut_vrirus_RdRp   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankIt2746954 FoCo20_AG_1_Galbut_virus_RdRp    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankIt2746954 FoCo20_TD_1_Galbut_virus_RdRp    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankIt2746954 FoCo20_TD_2_Galbut_virus_RdRp    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankIt2746954 FoCo20_TD_5_Galbut_virus_RdRp    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankIt2746954 FoCo20_TD_6_Galbut_virus_RdRp    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankIt2746954 FoCo21_LK_2_Galbut_virus_RdRp    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankIt2746954 FoCo21_LK_6_Galbut_virus_RdRp    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankIt2746954 FoCo21_MDS_1_Galbut_virus_RdRp   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankIt2746954 FoCo21_MDS_2_Galbut_virus_RdRp   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankIt2746954 FoCo21_MDS_3_Galbut_virus_RdRp   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankIt2746954 FoCo21_MDS_4_Galbut_virus_RdRp   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankIt2746954 FoCo21_MDS_5_Galbut_virus_RdRp   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankIt2746954 FoCo21_MDS_7_Galbut_virus_RdRp   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankIt2746954 FoCo21_MDS_8_Galbut_virus_RdRp   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankIt2746954 FoCo21_MDS_9_Galbut_virus_RdRp   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankIt2746954 FoCo21_MDS_10_Galbut_virus_RdRp  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankIt2746954 FoCo21_MDS_11_Galbut_virus_RdRp  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankIt2746954 FoCo21_MDS_12_Galbut_virus_RdRp  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankIt2746954 FoCo21_MDS_13_Galbut_virus_RdRp  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankIt2746954 FoCo21_MDS_17_Galbut_virus_RdRp  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankIt2746954 FoCo21_MDS_18_Galbut_virus_RdRp  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankIt2746954 FoCo21_MDS_19_Galbut_virus_RdRp  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankIt2746954 FoCo21_MDS_20_Galbut_virus_RdRp  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BankIt2746954 FoCo21_MDS_21_Galbut_virus_RdRp  </t>
+  </si>
+  <si>
+    <t>galbut_EVE</t>
   </si>
 </sst>
 </file>
@@ -774,213 +749,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007D9C4A-446C-764E-B0D2-0E4B09FBA6F5}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59:B63"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="68.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
         <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -991,780 +963,584 @@
         <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
         <v>83</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C37" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B38" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C38" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D38" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C42" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C43" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D46" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D47" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D48" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D49" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D50" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D52" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D53" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="D55" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B56" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="D56" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" t="s">
-        <v>95</v>
-      </c>
-      <c r="D57" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>121</v>
-      </c>
-      <c r="C58" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" t="s">
-        <v>95</v>
-      </c>
-      <c r="D59" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>123</v>
-      </c>
-      <c r="C60" t="s">
-        <v>95</v>
-      </c>
-      <c r="D60" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>124</v>
-      </c>
-      <c r="C61" t="s">
-        <v>95</v>
-      </c>
-      <c r="D61" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62" t="s">
-        <v>95</v>
-      </c>
-      <c r="D62" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" t="s">
-        <v>95</v>
-      </c>
-      <c r="D63" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>85</v>
-      </c>
-      <c r="C64" t="s">
-        <v>95</v>
-      </c>
-      <c r="D64" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" t="s">
-        <v>95</v>
-      </c>
-      <c r="D65" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>87</v>
-      </c>
-      <c r="C66" t="s">
-        <v>95</v>
-      </c>
-      <c r="D66" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" t="s">
-        <v>95</v>
-      </c>
-      <c r="D67" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>89</v>
-      </c>
-      <c r="C68" t="s">
-        <v>95</v>
-      </c>
-      <c r="D68" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>90</v>
-      </c>
-      <c r="C69" t="s">
-        <v>95</v>
-      </c>
-      <c r="D69" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>91</v>
-      </c>
-      <c r="C70" t="s">
-        <v>95</v>
-      </c>
-      <c r="D70" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
